--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560359/JX560359_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560359/JX560359_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89320554316</v>
+        <v>45441.83346822582</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1582c&gt;a']</t>
+          <t>['1665_1718insactggcctagcgctcaagaacagtaggagctatgtgcctgccgtaatggcttc', '1549_1589inscattttgcgagcgactattgccctgctgtgagtactcgtg', '1633_1643insattaatgcag', '1602_1628insatatgcgtgacaccaactgattcatc', '1544_1611inscctcagaaagctattgggaccgtttgtcacaagcggcacgcccagattttcacagctcatgaaaggt']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89320556631</v>
+        <v>45441.8334682509</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['622_626instatc']</t>
+          <t>['661_750insgctacctcctaaatggaacgggccgtagtacagtctctgtttccccgtaccctttaggcgactcacttcctagtgaatcttggattccc', '642_667insctaaacaaccggtctttaatttttg', '649_695del', '658_798inscaacccaccgggggttttctgtgatgtatccatgcgttctgaggtgctgtgtggccagtattaaaggatttattcggagtacgtagacaaggggctccgccccagatgcgagttcgatcggaccgcgacgacttcatttt', '627_738instatcttcgtagggccgcaggtgttttttcctcacctattgaggacgttaatcgaggggacgcagagcggaaaacagtggggtttgatgccttaaatcgatagcacgtacca']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89320558366</v>
+        <v>45441.83346827411</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3365_3367del']</t>
+          <t>['3377_3432insatgtactagatgatggagctttcacttgggagtttagtatactcagctaaatgaa', '3362_3444del', '3365_3462del', '3344_3477del', '3387_3448del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89320560585</v>
+        <v>45441.83346840962</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1651_1654del']</t>
+          <t>['1593_1645del', '1757_1837insttctggccaatgtttcatatggtaataaggacacgttgttttcatcataagagacaatttgtctcgcccgcacaaccaac', '1687_1743del', '1686_1808insatcagtcattccctaccccggtcgcaatgggacggtactgcaggtagctaactccgacccatagtattactcggacgcatctcacaagcctcgttgtagcctaagttgatattcgggccaag', '1538_1620insgggaaacgcgactgcgttagtcgagtttgaggaggctgtaaagcacactttgggcagagcctcctttccctcagatcaactt']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['602t&gt;c']</t>
+          <t>['677_811del', '692_802del', '691_741del', '648_774del', '604_708insggatggtagactgactattatgcgaccatgtgagatacgaaaaccttaactccggaccggcaaacattttttaggtgaccagatggcattcagtgtatagccga']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89320562907</v>
+        <v>45441.83346843276</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1697t&gt;a']</t>
+          <t>['1561_1687insgtgtcacattattggcaagctaccgaattaccagtttaccaaagaatgtaagattttgattggggggttgactcggatgagaggcagaaaaatgtgaatttataagtgcctacactccgcggcgaa', '1628_1676del', '1709_1844inscatgtagggcttgccattggaatgtccacgcacaatggccagatatgatcgacctggacttgccggaatgcctaccaagaccccgtcgcaaacatgccatttcaaggcaacgatttcttcttttggcagggaaca', '1697_1735inscgtgcagacggttctaggaggcgcagtacgcagtctaa', '1716_1831del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3319_3320del']</t>
+          <t>['3361_3473inscgtctagcatggctattacaccccggcaggtgaacgcgacaatcgaatcagacctggatcagggaatagggatccctcgttcacagactctggtgcaaggagtcccgaagaa', '3318_3346inscgatatcagtagccggcatatcctcctc', '3396_3488del', '3365_3476del', '3365_3511del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.8932056464</v>
+        <v>45441.8334684559</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['702_705del']</t>
+          <t>['622_690instagcgccccactgatgtcctcacctctcgaccccgcagtactttcgaactgttacagttccaggagcg', '623_755del', '634_706del', '619_745insgaactgagggggcgagatgcagggtatcctcccgggtttggagtaattccacaagaccggaaagaattctcgggtcgataaacgtaatcttcacgcagaattgcacaccctcctaacctggaagca', '628_729del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3398_3403inscagcg']</t>
+          <t>['3414_3521del', '3396_3412instgtcgagatgatttgg', '3409_3495inscaggacttcatcaccgactgaaactgtccgtatgaagagattctgtaggtgacaagccgaacgaatctcgggcctatagttgtagg', '3398_3523insccagttcttaagttacttcagtcacggactctaaccatggaccgtggccgacacaagggcccggaaacacgggctgcgagaaactcacagggtaaggtacgccttcattattataatggtcagcc', '3405_3495del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89320566376</v>
+        <v>45441.83346847906</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1702c&gt;g']</t>
+          <t>['1716_1813del', '1768_1912instcttagtaacagctgcaggtcctgctcgtgtgtatgacgctggaatgattgggtcaaggaaaacccaaacgactccgtagaacgccttagacctggaccatagcgtgggaagacccttttttcattgagactcggaatgggcct', '1556_1674insttatagcttttccacccgaaaagccagtcagcaaggcaccgtcaagtataatataagtacctatgccgtttccagggcgttggtatctcgactccaggacccgtttgagccgctgccc', '1675_1775insccgtacttcgattccaccaaccggaaggattgtgttgcctgaagtacgagggcgttaactgacagagactgagcagtcttagctaatggttaagcattgt', '1715_1821del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['691_692del']</t>
+          <t>['611_752insacccccgattgaaaaagctaaggaaactcggctataaggctcatgaggattcttatatatgcaagtcatcattgcatggtggttactctaacatagattgttttcccgccgggctgggtttagccattccgaaaaaccgat', '687_803del', '665_792insatgtgccttcatacttcctagtacggggcgctctcgagctaagagagcattcgaccccgcagggcatattgtgattagtcatagatgagctctctcctaaagtctgtcgccatatgctcgccgctta', '674_688insatgttggcataccg', '684_744del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3370_3374inscgca']</t>
+          <t>['3375_3503del', '3314_3344del', '3413_3523inscagtcggtttcaggagatggcggcgacggatcccttagacgcttgctaaggggatgcacaaccatagaatcatacatcaccactgccatagccctgcctggagggagaag', '3392_3441del', '3381_3501del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89320568691</v>
+        <v>45441.83346850798</v>
       </c>
     </row>
   </sheetData>
